--- a/DPI_Table_Audit/MstEmployeeAcademicandExtraCurricularActivityPerformanceSheet_16-09-2024.xlsx
+++ b/DPI_Table_Audit/MstEmployeeAcademicandExtraCurricularActivityPerformanceSheet_16-09-2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\e\Git_Repository_16_05-2022\School_EducationPortal3.0_tableSchema\DPI_Table_Audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8BB1E6-DFA2-4F3B-AF16-AC7DE0FDF082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588627F6-5381-4ED6-8B35-73464CE6353D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BFA4B2CD-1BD2-4FFE-A7CD-600732C0079E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BFA4B2CD-1BD2-4FFE-A7CD-600732C0079E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>S#</t>
   </si>
@@ -66,16 +66,64 @@
     <t>LastUpdatedByIP</t>
   </si>
   <si>
-    <t>EffectiveDate</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>MstEmployeeAcademicandExtraCurricularActivityPerformanceSheet</t>
   </si>
   <si>
     <t>TrnEmpCurricularActivity</t>
+  </si>
+  <si>
+    <t>FinancialYear</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>smallint</t>
+  </si>
+  <si>
+    <t>UseOfLearningAid</t>
+  </si>
+  <si>
+    <t>nvarchar</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>UseOfLessonPlan</t>
+  </si>
+  <si>
+    <t>InnovationandImpact</t>
+  </si>
+  <si>
+    <t>NotebookChecking</t>
+  </si>
+  <si>
+    <t>RemedialTeaching</t>
+  </si>
+  <si>
+    <t>ExtraClasses</t>
+  </si>
+  <si>
+    <t>SportsLiteraryCulturalActivity</t>
+  </si>
+  <si>
+    <t>Table Name</t>
+  </si>
+  <si>
+    <t>New Table Name</t>
+  </si>
+  <si>
+    <t>ExtraOrdiaryHygeneWork</t>
+  </si>
+  <si>
+    <t>UseofICTTeachingLearning</t>
+  </si>
+  <si>
+    <t>OtherContributions</t>
+  </si>
+  <si>
+    <t>Gvid</t>
   </si>
 </sst>
 </file>
@@ -107,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -130,19 +178,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -153,7 +188,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,23 +523,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C5728F-96E5-4C1F-9ECC-215E68AE79C2}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -527,76 +563,305 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1">
-        <v>50</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1">
-        <v>20</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>50</v>
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1">
+        <v>50</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="F13" s="3">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1">
+        <v>50</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
